--- a/flows/IAU_fund_flow_data.xlsx
+++ b/flows/IAU_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4806"/>
+  <dimension ref="A1:B4824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48495,6 +48495,186 @@
         <v>-18.9</v>
       </c>
     </row>
+    <row r="4807">
+      <c r="A4807" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4807" t="n">
+        <v>-11.517</v>
+      </c>
+    </row>
+    <row r="4808">
+      <c r="A4808" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4808" t="n">
+        <v>-11.502</v>
+      </c>
+    </row>
+    <row r="4809">
+      <c r="A4809" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4809" t="n">
+        <v>-19.145</v>
+      </c>
+    </row>
+    <row r="4810">
+      <c r="A4810" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4811">
+      <c r="A4811" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4811" t="n">
+        <v>-17.2575</v>
+      </c>
+    </row>
+    <row r="4812">
+      <c r="A4812" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4813">
+      <c r="A4813" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4813" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4814">
+      <c r="A4814" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4814" t="n">
+        <v>-44.551</v>
+      </c>
+    </row>
+    <row r="4815">
+      <c r="A4815" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4815" t="n">
+        <v>48.475</v>
+      </c>
+    </row>
+    <row r="4816">
+      <c r="A4816" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4817">
+      <c r="A4817" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4817" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4818">
+      <c r="A4818" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4818" t="n">
+        <v>-12.159</v>
+      </c>
+    </row>
+    <row r="4819">
+      <c r="A4819" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4819" t="n">
+        <v>-40.73</v>
+      </c>
+    </row>
+    <row r="4820">
+      <c r="A4820" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4821">
+      <c r="A4821" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4822">
+      <c r="A4822" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4822" t="n">
+        <v>-26.572</v>
+      </c>
+    </row>
+    <row r="4823">
+      <c r="A4823" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4823" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4824">
+      <c r="A4824" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4824" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
